--- a/AMZN.xlsx
+++ b/AMZN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ayanpussurmanov/Finance/financial_models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D3DA70-7D03-A14C-9E91-3B7B35DD159C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B8CDE65-EB03-6D44-B3E0-4BBF026BD24A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="640" yWindow="740" windowWidth="13660" windowHeight="17260" activeTab="1" xr2:uid="{DBF0F2D7-224F-4F43-AC71-F2C48BF6EDF2}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
   <si>
     <t>Main</t>
   </si>
@@ -160,6 +160,12 @@
   </si>
   <si>
     <t>equity-method invest</t>
+  </si>
+  <si>
+    <t>Product growth%</t>
+  </si>
+  <si>
+    <t>Service growth%</t>
   </si>
 </sst>
 </file>
@@ -721,10 +727,10 @@
   <dimension ref="A1:EM30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="N5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="Q24" sqref="Q24"/>
+      <selection pane="bottomRight" activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1716,7 +1722,7 @@
       </c>
       <c r="K21" s="15"/>
       <c r="L21" s="15">
-        <f t="shared" ref="K21:N21" si="26">L18-L19-L20</f>
+        <f t="shared" ref="L21:N21" si="26">L18-L19-L20</f>
         <v>33364</v>
       </c>
       <c r="M21" s="15">
@@ -1736,31 +1742,31 @@
         <v>61971.009500000058</v>
       </c>
       <c r="Q21" s="15">
-        <f>Q7*Q29</f>
+        <f t="shared" ref="Q21:W21" si="28">Q7*Q29</f>
         <v>68168.110450000066</v>
       </c>
       <c r="R21" s="15">
-        <f>R7*R29</f>
+        <f t="shared" si="28"/>
         <v>85393.759550000017</v>
       </c>
       <c r="S21" s="15">
-        <f>S7*S29</f>
+        <f t="shared" si="28"/>
         <v>111695.03749140003</v>
       </c>
       <c r="T21" s="15">
-        <f>T7*T29</f>
+        <f t="shared" si="28"/>
         <v>130683.19386493805</v>
       </c>
       <c r="U21" s="15">
-        <f>U7*U29</f>
+        <f t="shared" si="28"/>
         <v>150587.24954590556</v>
       </c>
       <c r="V21" s="15">
-        <f>V7*V29</f>
+        <f t="shared" si="28"/>
         <v>171024.09055570702</v>
       </c>
       <c r="W21" s="15">
-        <f>W7*W29</f>
+        <f t="shared" si="28"/>
         <v>179575.29508349238</v>
       </c>
       <c r="X21" s="15">
@@ -2249,35 +2255,35 @@
         <v>20</v>
       </c>
       <c r="C22" s="8">
-        <f t="shared" ref="C22:K22" si="28">C21/C23</f>
+        <f t="shared" ref="C22:I22" si="29">C21/C23</f>
         <v>0.3065622885860636</v>
       </c>
       <c r="D22" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.64599483204134367</v>
       </c>
       <c r="E22" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.93568857738207989</v>
       </c>
       <c r="F22" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>1.0426931004023947</v>
       </c>
       <c r="G22" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.97760074976569822</v>
       </c>
       <c r="H22" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>1.2593388121031004</v>
       </c>
       <c r="I22" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>1.4278528178854215</v>
       </c>
       <c r="J22" s="8">
-        <f t="shared" ref="J22" si="29">J21/J23</f>
+        <f t="shared" ref="J22" si="30">J21/J23</f>
         <v>1.1548393106660468</v>
       </c>
       <c r="K22" s="8"/>
@@ -2286,19 +2292,19 @@
         <v>3.2404817404817403</v>
       </c>
       <c r="M22" s="8">
-        <f t="shared" ref="M22:P22" si="30">M21/M23</f>
+        <f t="shared" ref="M22:P22" si="31">M21/M23</f>
         <v>-0.2671508489547551</v>
       </c>
       <c r="N22" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>2.8998284407167367</v>
       </c>
       <c r="O22" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>4.8183698183511829</v>
       </c>
       <c r="P22" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>5.7728001397298607</v>
       </c>
     </row>
@@ -2351,70 +2357,76 @@
       </c>
     </row>
     <row r="25" spans="2:143">
+      <c r="B25" t="s">
+        <v>41</v>
+      </c>
       <c r="G25" s="11">
-        <f t="shared" ref="G25:G26" si="31">G5/C5-1</f>
+        <f t="shared" ref="G25:G26" si="32">G5/C5-1</f>
         <v>6.9040557378775347E-2</v>
       </c>
       <c r="H25" s="11">
-        <f t="shared" ref="H25:J26" si="32">H5/D5-1</f>
+        <f t="shared" ref="H25:J26" si="33">H5/D5-1</f>
         <v>4.2976690608483636E-2</v>
       </c>
       <c r="I25" s="11">
+        <f t="shared" si="33"/>
+        <v>7.0127115290243847E-2</v>
+      </c>
+      <c r="J25" s="11">
+        <f t="shared" si="33"/>
+        <v>4.2983977158650877E-2</v>
+      </c>
+      <c r="M25" s="11">
+        <f t="shared" ref="M25:M26" si="34">M5/L5-1</f>
+        <v>4.6073610243726471E-3</v>
+      </c>
+      <c r="N25" s="11">
+        <f t="shared" ref="N25:N26" si="35">N5/M5-1</f>
+        <v>5.3462110077768354E-2</v>
+      </c>
+      <c r="O25" s="11">
+        <f t="shared" ref="O25:O26" si="36">O5/N5-1</f>
+        <v>5.5485429115195384E-2</v>
+      </c>
+      <c r="P25" s="11">
+        <f t="shared" ref="P25:P26" si="37">P5/O5-1</f>
+        <v>5.0000000000000044E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:143">
+      <c r="B26" t="s">
+        <v>42</v>
+      </c>
+      <c r="G26" s="11">
         <f t="shared" si="32"/>
-        <v>7.0127115290243847E-2</v>
-      </c>
-      <c r="J25" s="11">
-        <f t="shared" si="32"/>
-        <v>4.2983977158650877E-2</v>
-      </c>
-      <c r="M25" s="11">
-        <f t="shared" ref="M25:M26" si="33">M5/L5-1</f>
-        <v>4.6073610243726471E-3</v>
-      </c>
-      <c r="N25" s="11">
-        <f t="shared" ref="N25:N26" si="34">N5/M5-1</f>
-        <v>5.3462110077768354E-2</v>
-      </c>
-      <c r="O25" s="11">
-        <f t="shared" ref="O25:O26" si="35">O5/N5-1</f>
-        <v>5.5485429115195384E-2</v>
-      </c>
-      <c r="P25" s="11">
-        <f t="shared" ref="P25:P26" si="36">P5/O5-1</f>
-        <v>5.0000000000000044E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="2:143">
-      <c r="G26" s="11">
-        <f t="shared" si="31"/>
         <v>0.17080864486977276</v>
       </c>
       <c r="H26" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.14673992382317413</v>
       </c>
       <c r="I26" s="11">
-        <f t="shared" ref="I26:J26" si="37">I6/E6-1</f>
+        <f t="shared" ref="I26:J26" si="38">I6/E6-1</f>
         <v>0.14220642706977671</v>
       </c>
       <c r="J26" s="11">
+        <f t="shared" si="38"/>
+        <v>0.14735465053936392</v>
+      </c>
+      <c r="M26" s="11">
+        <f t="shared" si="34"/>
+        <v>0.18877365316727701</v>
+      </c>
+      <c r="N26" s="11">
+        <f t="shared" si="35"/>
+        <v>0.17638943197999124</v>
+      </c>
+      <c r="O26" s="11">
+        <f t="shared" si="36"/>
+        <v>0.15109533455838542</v>
+      </c>
+      <c r="P26" s="11">
         <f t="shared" si="37"/>
-        <v>0.14735465053936392</v>
-      </c>
-      <c r="M26" s="11">
-        <f t="shared" si="33"/>
-        <v>0.18877365316727701</v>
-      </c>
-      <c r="N26" s="11">
-        <f t="shared" si="34"/>
-        <v>0.17638943197999124</v>
-      </c>
-      <c r="O26" s="11">
-        <f t="shared" si="35"/>
-        <v>0.15109533455838542</v>
-      </c>
-      <c r="P26" s="11">
-        <f t="shared" si="36"/>
         <v>0.14999999999999991</v>
       </c>
     </row>
@@ -2423,11 +2435,11 @@
         <v>22</v>
       </c>
       <c r="G27" s="11">
-        <f t="shared" ref="G27:H27" si="38">G7/C7-1</f>
+        <f t="shared" ref="G27:H27" si="39">G7/C7-1</f>
         <v>0.12527677884388888</v>
       </c>
       <c r="H27" s="11">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0.10115862869559389</v>
       </c>
       <c r="I27" s="11">
@@ -2443,15 +2455,15 @@
         <v>9.399517263985091E-2</v>
       </c>
       <c r="N27" s="11">
-        <f t="shared" ref="N27:P27" si="39">N7/M7-1</f>
+        <f t="shared" ref="N27:P27" si="40">N7/M7-1</f>
         <v>0.1182957412988368</v>
       </c>
       <c r="O27" s="11">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0.10853101594509251</v>
       </c>
       <c r="P27" s="11">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0.10761158377630986</v>
       </c>
       <c r="Q27" s="12">
@@ -2481,35 +2493,35 @@
         <v>23</v>
       </c>
       <c r="C28" s="11">
-        <f>C9/C7</f>
+        <f t="shared" ref="C28:J28" si="41">C9/C7</f>
         <v>0.46771306082067871</v>
       </c>
       <c r="D28" s="11">
-        <f>D9/D7</f>
+        <f t="shared" si="41"/>
         <v>0.48376654785203488</v>
       </c>
       <c r="E28" s="11">
-        <f>E9/E7</f>
+        <f t="shared" si="41"/>
         <v>0.47567495789157344</v>
       </c>
       <c r="F28" s="11">
-        <f>F9/F7</f>
+        <f t="shared" si="41"/>
         <v>0.45544566106342044</v>
       </c>
       <c r="G28" s="11">
-        <f>G9/G7</f>
+        <f t="shared" si="41"/>
         <v>0.49318624269954575</v>
       </c>
       <c r="H28" s="11">
-        <f>H9/H7</f>
+        <f t="shared" si="41"/>
         <v>0.50137521371564497</v>
       </c>
       <c r="I28" s="11">
-        <f>I9/I7</f>
+        <f t="shared" si="41"/>
         <v>0.49031640829069029</v>
       </c>
       <c r="J28" s="11">
-        <f>J9/J7</f>
+        <f t="shared" si="41"/>
         <v>0.45557058823529412</v>
       </c>
       <c r="L28" s="11">
@@ -2538,35 +2550,35 @@
         <v>24</v>
       </c>
       <c r="C29" s="11">
-        <f>C21/C7</f>
+        <f t="shared" ref="C29:J29" si="42">C21/C7</f>
         <v>2.4906170008951147E-2</v>
       </c>
       <c r="D29" s="11">
-        <f>D21/D7</f>
+        <f t="shared" si="42"/>
         <v>5.0229567728060844E-2</v>
       </c>
       <c r="E29" s="11">
-        <f>E21/E7</f>
+        <f t="shared" si="42"/>
         <v>6.9043841686293975E-2</v>
       </c>
       <c r="F29" s="11">
-        <f>F21/F7</f>
+        <f t="shared" si="42"/>
         <v>6.2508457822676972E-2</v>
       </c>
       <c r="G29" s="11">
-        <f>G21/G7</f>
+        <f t="shared" si="42"/>
         <v>7.2784743882271671E-2</v>
       </c>
       <c r="H29" s="11">
-        <f>H21/H7</f>
+        <f t="shared" si="42"/>
         <v>9.1129026808220201E-2</v>
       </c>
       <c r="I29" s="11">
-        <f>I21/I7</f>
+        <f t="shared" si="42"/>
         <v>9.6477148989469838E-2</v>
       </c>
       <c r="J29" s="11">
-        <f>J21/J7</f>
+        <f t="shared" si="42"/>
         <v>6.6295187165775468E-2</v>
       </c>
       <c r="L29" s="11">
@@ -2609,7 +2621,7 @@
         <v>0.15</v>
       </c>
       <c r="W29" s="13">
-        <f t="shared" ref="T29:W29" si="40">V29</f>
+        <f t="shared" ref="W29" si="43">V29</f>
         <v>0.15</v>
       </c>
     </row>
@@ -2618,35 +2630,35 @@
         <v>25</v>
       </c>
       <c r="C30" s="11">
-        <f t="shared" ref="C30:I30" si="41">C19/C18</f>
+        <f t="shared" ref="C30:I30" si="44">C19/C18</f>
         <v>0.23015294974508377</v>
       </c>
       <c r="D30" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>0.10630702102340341</v>
       </c>
       <c r="E30" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>0.18918697185987365</v>
       </c>
       <c r="F30" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>0.22373228116323249</v>
       </c>
       <c r="G30" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>0.1900177154740815</v>
       </c>
       <c r="H30" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>0.11590685470646113</v>
       </c>
       <c r="I30" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>0.15002494871652713</v>
       </c>
       <c r="J30" s="11">
-        <f t="shared" ref="J30" si="42">J19/J18</f>
+        <f t="shared" ref="J30" si="45">J19/J18</f>
         <v>0.1791317472296142</v>
       </c>
       <c r="L30" s="11">
@@ -2654,19 +2666,19 @@
         <v>0.12557993237398757</v>
       </c>
       <c r="M30" s="11">
-        <f t="shared" ref="M30:O30" si="43">M19/M18</f>
+        <f t="shared" ref="M30:O30" si="46">M19/M18</f>
         <v>0.54194743935309975</v>
       </c>
       <c r="N30" s="11">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>0.18957850733551668</v>
       </c>
       <c r="O30" s="11">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>0.15717470083687474</v>
       </c>
       <c r="P30" s="11">
-        <f t="shared" ref="P30" si="44">P19/P18</f>
+        <f t="shared" ref="P30" si="47">P19/P18</f>
         <v>0.15</v>
       </c>
     </row>

--- a/AMZN.xlsx
+++ b/AMZN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ayanpussurmanov/Finance/financial_models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B8CDE65-EB03-6D44-B3E0-4BBF026BD24A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{696D8260-61A0-2E42-BFEC-708D0E633129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="640" yWindow="740" windowWidth="13660" windowHeight="17260" activeTab="1" xr2:uid="{DBF0F2D7-224F-4F43-AC71-F2C48BF6EDF2}"/>
+    <workbookView xWindow="640" yWindow="740" windowWidth="13660" windowHeight="17260" xr2:uid="{DBF0F2D7-224F-4F43-AC71-F2C48BF6EDF2}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -600,8 +600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F32251-463A-6244-AA60-5FF02613DB68}">
   <dimension ref="K2:M15"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -682,7 +682,7 @@
         <v>8</v>
       </c>
       <c r="L10" s="5">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="11" spans="11:13">
@@ -699,7 +699,7 @@
       </c>
       <c r="L12" s="3">
         <f>NPV(L11,Model!P21:EM21)+L5-L6</f>
-        <v>2195716.4819234372</v>
+        <v>1996348.5567834903</v>
       </c>
     </row>
     <row r="13" spans="11:13">
@@ -708,13 +708,13 @@
       </c>
       <c r="L13" s="7">
         <f>L12/L3</f>
-        <v>208.81754464321799</v>
+        <v>189.85720939453071</v>
       </c>
     </row>
     <row r="15" spans="11:13">
       <c r="L15" s="10">
         <f>L13/L2-1</f>
-        <v>-6.7778818557062581E-2</v>
+        <v>-0.15242317234584501</v>
       </c>
     </row>
   </sheetData>
@@ -726,7 +726,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3162E4A2-9F6A-FC45-8126-BDDA495ABCCF}">
   <dimension ref="A1:EM30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
@@ -1771,483 +1771,483 @@
       </c>
       <c r="X21" s="15">
         <f>W21*(1+Main!$L$10)</f>
-        <v>179575.29508349238</v>
+        <v>177779.54213265746</v>
       </c>
       <c r="Y21" s="15">
         <f>X21*(1+Main!$L$10)</f>
-        <v>179575.29508349238</v>
+        <v>176001.7467113309</v>
       </c>
       <c r="Z21" s="15">
         <f>Y21*(1+Main!$L$10)</f>
-        <v>179575.29508349238</v>
+        <v>174241.7292442176</v>
       </c>
       <c r="AA21" s="15">
         <f>Z21*(1+Main!$L$10)</f>
-        <v>179575.29508349238</v>
+        <v>172499.31195177542</v>
       </c>
       <c r="AB21" s="15">
         <f>AA21*(1+Main!$L$10)</f>
-        <v>179575.29508349238</v>
+        <v>170774.31883225768</v>
       </c>
       <c r="AC21" s="15">
         <f>AB21*(1+Main!$L$10)</f>
-        <v>179575.29508349238</v>
+        <v>169066.5756439351</v>
       </c>
       <c r="AD21" s="15">
         <f>AC21*(1+Main!$L$10)</f>
-        <v>179575.29508349238</v>
+        <v>167375.90988749574</v>
       </c>
       <c r="AE21" s="15">
         <f>AD21*(1+Main!$L$10)</f>
-        <v>179575.29508349238</v>
+        <v>165702.15078862078</v>
       </c>
       <c r="AF21" s="15">
         <f>AE21*(1+Main!$L$10)</f>
-        <v>179575.29508349238</v>
+        <v>164045.12928073457</v>
       </c>
       <c r="AG21" s="15">
         <f>AF21*(1+Main!$L$10)</f>
-        <v>179575.29508349238</v>
+        <v>162404.67798792722</v>
       </c>
       <c r="AH21" s="15">
         <f>AG21*(1+Main!$L$10)</f>
-        <v>179575.29508349238</v>
+        <v>160780.63120804794</v>
       </c>
       <c r="AI21" s="15">
         <f>AH21*(1+Main!$L$10)</f>
-        <v>179575.29508349238</v>
+        <v>159172.82489596747</v>
       </c>
       <c r="AJ21" s="15">
         <f>AI21*(1+Main!$L$10)</f>
-        <v>179575.29508349238</v>
+        <v>157581.0966470078</v>
       </c>
       <c r="AK21" s="15">
         <f>AJ21*(1+Main!$L$10)</f>
-        <v>179575.29508349238</v>
+        <v>156005.28568053772</v>
       </c>
       <c r="AL21" s="15">
         <f>AK21*(1+Main!$L$10)</f>
-        <v>179575.29508349238</v>
+        <v>154445.23282373234</v>
       </c>
       <c r="AM21" s="15">
         <f>AL21*(1+Main!$L$10)</f>
-        <v>179575.29508349238</v>
+        <v>152900.78049549501</v>
       </c>
       <c r="AN21" s="15">
         <f>AM21*(1+Main!$L$10)</f>
-        <v>179575.29508349238</v>
+        <v>151371.77269054006</v>
       </c>
       <c r="AO21" s="15">
         <f>AN21*(1+Main!$L$10)</f>
-        <v>179575.29508349238</v>
+        <v>149858.05496363467</v>
       </c>
       <c r="AP21" s="15">
         <f>AO21*(1+Main!$L$10)</f>
-        <v>179575.29508349238</v>
+        <v>148359.47441399831</v>
       </c>
       <c r="AQ21" s="15">
         <f>AP21*(1+Main!$L$10)</f>
-        <v>179575.29508349238</v>
+        <v>146875.87966985832</v>
       </c>
       <c r="AR21" s="15">
         <f>AQ21*(1+Main!$L$10)</f>
-        <v>179575.29508349238</v>
+        <v>145407.12087315973</v>
       </c>
       <c r="AS21" s="15">
         <f>AR21*(1+Main!$L$10)</f>
-        <v>179575.29508349238</v>
+        <v>143953.04966442814</v>
       </c>
       <c r="AT21" s="15">
         <f>AS21*(1+Main!$L$10)</f>
-        <v>179575.29508349238</v>
+        <v>142513.51916778384</v>
       </c>
       <c r="AU21" s="15">
         <f>AT21*(1+Main!$L$10)</f>
-        <v>179575.29508349238</v>
+        <v>141088.38397610601</v>
       </c>
       <c r="AV21" s="15">
         <f>AU21*(1+Main!$L$10)</f>
-        <v>179575.29508349238</v>
+        <v>139677.50013634496</v>
       </c>
       <c r="AW21" s="15">
         <f>AV21*(1+Main!$L$10)</f>
-        <v>179575.29508349238</v>
+        <v>138280.72513498151</v>
       </c>
       <c r="AX21" s="15">
         <f>AW21*(1+Main!$L$10)</f>
-        <v>179575.29508349238</v>
+        <v>136897.91788363169</v>
       </c>
       <c r="AY21" s="15">
         <f>AX21*(1+Main!$L$10)</f>
-        <v>179575.29508349238</v>
+        <v>135528.93870479538</v>
       </c>
       <c r="AZ21" s="15">
         <f>AY21*(1+Main!$L$10)</f>
-        <v>179575.29508349238</v>
+        <v>134173.64931774742</v>
       </c>
       <c r="BA21" s="15">
         <f>AZ21*(1+Main!$L$10)</f>
-        <v>179575.29508349238</v>
+        <v>132831.91282456994</v>
       </c>
       <c r="BB21" s="15">
         <f>BA21*(1+Main!$L$10)</f>
-        <v>179575.29508349238</v>
+        <v>131503.59369632424</v>
       </c>
       <c r="BC21" s="15">
         <f>BB21*(1+Main!$L$10)</f>
-        <v>179575.29508349238</v>
+        <v>130188.55775936099</v>
       </c>
       <c r="BD21" s="15">
         <f>BC21*(1+Main!$L$10)</f>
-        <v>179575.29508349238</v>
+        <v>128886.67218176738</v>
       </c>
       <c r="BE21" s="15">
         <f>BD21*(1+Main!$L$10)</f>
-        <v>179575.29508349238</v>
+        <v>127597.80545994971</v>
       </c>
       <c r="BF21" s="15">
         <f>BE21*(1+Main!$L$10)</f>
-        <v>179575.29508349238</v>
+        <v>126321.82740535021</v>
       </c>
       <c r="BG21" s="15">
         <f>BF21*(1+Main!$L$10)</f>
-        <v>179575.29508349238</v>
+        <v>125058.6091312967</v>
       </c>
       <c r="BH21" s="15">
         <f>BG21*(1+Main!$L$10)</f>
-        <v>179575.29508349238</v>
+        <v>123808.02303998373</v>
       </c>
       <c r="BI21" s="15">
         <f>BH21*(1+Main!$L$10)</f>
-        <v>179575.29508349238</v>
+        <v>122569.9428095839</v>
       </c>
       <c r="BJ21" s="15">
         <f>BI21*(1+Main!$L$10)</f>
-        <v>179575.29508349238</v>
+        <v>121344.24338148805</v>
       </c>
       <c r="BK21" s="15">
         <f>BJ21*(1+Main!$L$10)</f>
-        <v>179575.29508349238</v>
+        <v>120130.80094767317</v>
       </c>
       <c r="BL21" s="15">
         <f>BK21*(1+Main!$L$10)</f>
-        <v>179575.29508349238</v>
+        <v>118929.49293819643</v>
       </c>
       <c r="BM21" s="15">
         <f>BL21*(1+Main!$L$10)</f>
-        <v>179575.29508349238</v>
+        <v>117740.19800881446</v>
       </c>
       <c r="BN21" s="15">
         <f>BM21*(1+Main!$L$10)</f>
-        <v>179575.29508349238</v>
+        <v>116562.79602872631</v>
       </c>
       <c r="BO21" s="15">
         <f>BN21*(1+Main!$L$10)</f>
-        <v>179575.29508349238</v>
+        <v>115397.16806843904</v>
       </c>
       <c r="BP21" s="15">
         <f>BO21*(1+Main!$L$10)</f>
-        <v>179575.29508349238</v>
+        <v>114243.19638775465</v>
       </c>
       <c r="BQ21" s="15">
         <f>BP21*(1+Main!$L$10)</f>
-        <v>179575.29508349238</v>
+        <v>113100.7644238771</v>
       </c>
       <c r="BR21" s="15">
         <f>BQ21*(1+Main!$L$10)</f>
-        <v>179575.29508349238</v>
+        <v>111969.75677963834</v>
       </c>
       <c r="BS21" s="15">
         <f>BR21*(1+Main!$L$10)</f>
-        <v>179575.29508349238</v>
+        <v>110850.05921184196</v>
       </c>
       <c r="BT21" s="15">
         <f>BS21*(1+Main!$L$10)</f>
-        <v>179575.29508349238</v>
+        <v>109741.55861972354</v>
       </c>
       <c r="BU21" s="15">
         <f>BT21*(1+Main!$L$10)</f>
-        <v>179575.29508349238</v>
+        <v>108644.1430335263</v>
       </c>
       <c r="BV21" s="15">
         <f>BU21*(1+Main!$L$10)</f>
-        <v>179575.29508349238</v>
+        <v>107557.70160319103</v>
       </c>
       <c r="BW21" s="15">
         <f>BV21*(1+Main!$L$10)</f>
-        <v>179575.29508349238</v>
+        <v>106482.12458715912</v>
       </c>
       <c r="BX21" s="15">
         <f>BW21*(1+Main!$L$10)</f>
-        <v>179575.29508349238</v>
+        <v>105417.30334128754</v>
       </c>
       <c r="BY21" s="15">
         <f>BX21*(1+Main!$L$10)</f>
-        <v>179575.29508349238</v>
+        <v>104363.13030787466</v>
       </c>
       <c r="BZ21" s="15">
         <f>BY21*(1+Main!$L$10)</f>
-        <v>179575.29508349238</v>
+        <v>103319.49900479591</v>
       </c>
       <c r="CA21" s="15">
         <f>BZ21*(1+Main!$L$10)</f>
-        <v>179575.29508349238</v>
+        <v>102286.30401474795</v>
       </c>
       <c r="CB21" s="15">
         <f>CA21*(1+Main!$L$10)</f>
-        <v>179575.29508349238</v>
+        <v>101263.44097460047</v>
       </c>
       <c r="CC21" s="15">
         <f>CB21*(1+Main!$L$10)</f>
-        <v>179575.29508349238</v>
+        <v>100250.80656485446</v>
       </c>
       <c r="CD21" s="15">
         <f>CC21*(1+Main!$L$10)</f>
-        <v>179575.29508349238</v>
+        <v>99248.298499205906</v>
       </c>
       <c r="CE21" s="15">
         <f>CD21*(1+Main!$L$10)</f>
-        <v>179575.29508349238</v>
+        <v>98255.815514213842</v>
       </c>
       <c r="CF21" s="15">
         <f>CE21*(1+Main!$L$10)</f>
-        <v>179575.29508349238</v>
+        <v>97273.257359071707</v>
       </c>
       <c r="CG21" s="15">
         <f>CF21*(1+Main!$L$10)</f>
-        <v>179575.29508349238</v>
+        <v>96300.524785480986</v>
       </c>
       <c r="CH21" s="15">
         <f>CG21*(1+Main!$L$10)</f>
-        <v>179575.29508349238</v>
+        <v>95337.519537626169</v>
       </c>
       <c r="CI21" s="15">
         <f>CH21*(1+Main!$L$10)</f>
-        <v>179575.29508349238</v>
+        <v>94384.1443422499</v>
       </c>
       <c r="CJ21" s="15">
         <f>CI21*(1+Main!$L$10)</f>
-        <v>179575.29508349238</v>
+        <v>93440.302898827402</v>
       </c>
       <c r="CK21" s="15">
         <f>CJ21*(1+Main!$L$10)</f>
-        <v>179575.29508349238</v>
+        <v>92505.899869839122</v>
       </c>
       <c r="CL21" s="15">
         <f>CK21*(1+Main!$L$10)</f>
-        <v>179575.29508349238</v>
+        <v>91580.840871140725</v>
       </c>
       <c r="CM21" s="15">
         <f>CL21*(1+Main!$L$10)</f>
-        <v>179575.29508349238</v>
+        <v>90665.032462429313</v>
       </c>
       <c r="CN21" s="15">
         <f>CM21*(1+Main!$L$10)</f>
-        <v>179575.29508349238</v>
+        <v>89758.38213780502</v>
       </c>
       <c r="CO21" s="15">
         <f>CN21*(1+Main!$L$10)</f>
-        <v>179575.29508349238</v>
+        <v>88860.798316426968</v>
       </c>
       <c r="CP21" s="15">
         <f>CO21*(1+Main!$L$10)</f>
-        <v>179575.29508349238</v>
+        <v>87972.190333262697</v>
       </c>
       <c r="CQ21" s="15">
         <f>CP21*(1+Main!$L$10)</f>
-        <v>179575.29508349238</v>
+        <v>87092.468429930072</v>
       </c>
       <c r="CR21" s="15">
         <f>CQ21*(1+Main!$L$10)</f>
-        <v>179575.29508349238</v>
+        <v>86221.54374563077</v>
       </c>
       <c r="CS21" s="15">
         <f>CR21*(1+Main!$L$10)</f>
-        <v>179575.29508349238</v>
+        <v>85359.328308174459</v>
       </c>
       <c r="CT21" s="15">
         <f>CS21*(1+Main!$L$10)</f>
-        <v>179575.29508349238</v>
+        <v>84505.735025092712</v>
       </c>
       <c r="CU21" s="15">
         <f>CT21*(1+Main!$L$10)</f>
-        <v>179575.29508349238</v>
+        <v>83660.677674841791</v>
       </c>
       <c r="CV21" s="15">
         <f>CU21*(1+Main!$L$10)</f>
-        <v>179575.29508349238</v>
+        <v>82824.07089809337</v>
       </c>
       <c r="CW21" s="15">
         <f>CV21*(1+Main!$L$10)</f>
-        <v>179575.29508349238</v>
+        <v>81995.830189112443</v>
       </c>
       <c r="CX21" s="15">
         <f>CW21*(1+Main!$L$10)</f>
-        <v>179575.29508349238</v>
+        <v>81175.871887221321</v>
       </c>
       <c r="CY21" s="15">
         <f>CX21*(1+Main!$L$10)</f>
-        <v>179575.29508349238</v>
+        <v>80364.113168349111</v>
       </c>
       <c r="CZ21" s="15">
         <f>CY21*(1+Main!$L$10)</f>
-        <v>179575.29508349238</v>
+        <v>79560.472036665626</v>
       </c>
       <c r="DA21" s="15">
         <f>CZ21*(1+Main!$L$10)</f>
-        <v>179575.29508349238</v>
+        <v>78764.867316298973</v>
       </c>
       <c r="DB21" s="15">
         <f>DA21*(1+Main!$L$10)</f>
-        <v>179575.29508349238</v>
+        <v>77977.218643135988</v>
       </c>
       <c r="DC21" s="15">
         <f>DB21*(1+Main!$L$10)</f>
-        <v>179575.29508349238</v>
+        <v>77197.446456704623</v>
       </c>
       <c r="DD21" s="15">
         <f>DC21*(1+Main!$L$10)</f>
-        <v>179575.29508349238</v>
+        <v>76425.47199213758</v>
       </c>
       <c r="DE21" s="15">
         <f>DD21*(1+Main!$L$10)</f>
-        <v>179575.29508349238</v>
+        <v>75661.217272216207</v>
       </c>
       <c r="DF21" s="15">
         <f>DE21*(1+Main!$L$10)</f>
-        <v>179575.29508349238</v>
+        <v>74904.605099494045</v>
       </c>
       <c r="DG21" s="15">
         <f>DF21*(1+Main!$L$10)</f>
-        <v>179575.29508349238</v>
+        <v>74155.559048499097</v>
       </c>
       <c r="DH21" s="15">
         <f>DG21*(1+Main!$L$10)</f>
-        <v>179575.29508349238</v>
+        <v>73414.003458014107</v>
       </c>
       <c r="DI21" s="15">
         <f>DH21*(1+Main!$L$10)</f>
-        <v>179575.29508349238</v>
+        <v>72679.86342343397</v>
       </c>
       <c r="DJ21" s="15">
         <f>DI21*(1+Main!$L$10)</f>
-        <v>179575.29508349238</v>
+        <v>71953.064789199634</v>
       </c>
       <c r="DK21" s="15">
         <f>DJ21*(1+Main!$L$10)</f>
-        <v>179575.29508349238</v>
+        <v>71233.534141307638</v>
       </c>
       <c r="DL21" s="15">
         <f>DK21*(1+Main!$L$10)</f>
-        <v>179575.29508349238</v>
+        <v>70521.198799894555</v>
       </c>
       <c r="DM21" s="15">
         <f>DL21*(1+Main!$L$10)</f>
-        <v>179575.29508349238</v>
+        <v>69815.986811895607</v>
       </c>
       <c r="DN21" s="15">
         <f>DM21*(1+Main!$L$10)</f>
-        <v>179575.29508349238</v>
+        <v>69117.826943776658</v>
       </c>
       <c r="DO21" s="15">
         <f>DN21*(1+Main!$L$10)</f>
-        <v>179575.29508349238</v>
+        <v>68426.648674338896</v>
       </c>
       <c r="DP21" s="15">
         <f>DO21*(1+Main!$L$10)</f>
-        <v>179575.29508349238</v>
+        <v>67742.382187595504</v>
       </c>
       <c r="DQ21" s="15">
         <f>DP21*(1+Main!$L$10)</f>
-        <v>179575.29508349238</v>
+        <v>67064.958365719547</v>
       </c>
       <c r="DR21" s="15">
         <f>DQ21*(1+Main!$L$10)</f>
-        <v>179575.29508349238</v>
+        <v>66394.308782062348</v>
       </c>
       <c r="DS21" s="15">
         <f>DR21*(1+Main!$L$10)</f>
-        <v>179575.29508349238</v>
+        <v>65730.365694241729</v>
       </c>
       <c r="DT21" s="15">
         <f>DS21*(1+Main!$L$10)</f>
-        <v>179575.29508349238</v>
+        <v>65073.062037299314</v>
       </c>
       <c r="DU21" s="15">
         <f>DT21*(1+Main!$L$10)</f>
-        <v>179575.29508349238</v>
+        <v>64422.331416926318</v>
       </c>
       <c r="DV21" s="15">
         <f>DU21*(1+Main!$L$10)</f>
-        <v>179575.29508349238</v>
+        <v>63778.108102757054</v>
       </c>
       <c r="DW21" s="15">
         <f>DV21*(1+Main!$L$10)</f>
-        <v>179575.29508349238</v>
+        <v>63140.327021729485</v>
       </c>
       <c r="DX21" s="15">
         <f>DW21*(1+Main!$L$10)</f>
-        <v>179575.29508349238</v>
+        <v>62508.923751512186</v>
       </c>
       <c r="DY21" s="15">
         <f>DX21*(1+Main!$L$10)</f>
-        <v>179575.29508349238</v>
+        <v>61883.834513997062</v>
       </c>
       <c r="DZ21" s="15">
         <f>DY21*(1+Main!$L$10)</f>
-        <v>179575.29508349238</v>
+        <v>61264.996168857091</v>
       </c>
       <c r="EA21" s="15">
         <f>DZ21*(1+Main!$L$10)</f>
-        <v>179575.29508349238</v>
+        <v>60652.346207168521</v>
       </c>
       <c r="EB21" s="15">
         <f>EA21*(1+Main!$L$10)</f>
-        <v>179575.29508349238</v>
+        <v>60045.822745096833</v>
       </c>
       <c r="EC21" s="15">
         <f>EB21*(1+Main!$L$10)</f>
-        <v>179575.29508349238</v>
+        <v>59445.364517645867</v>
       </c>
       <c r="ED21" s="15">
         <f>EC21*(1+Main!$L$10)</f>
-        <v>179575.29508349238</v>
+        <v>58850.910872469409</v>
       </c>
       <c r="EE21" s="15">
         <f>ED21*(1+Main!$L$10)</f>
-        <v>179575.29508349238</v>
+        <v>58262.401763744718</v>
       </c>
       <c r="EF21" s="15">
         <f>EE21*(1+Main!$L$10)</f>
-        <v>179575.29508349238</v>
+        <v>57679.777746107269</v>
       </c>
       <c r="EG21" s="15">
         <f>EF21*(1+Main!$L$10)</f>
-        <v>179575.29508349238</v>
+        <v>57102.979968646199</v>
       </c>
       <c r="EH21" s="15">
         <f>EG21*(1+Main!$L$10)</f>
-        <v>179575.29508349238</v>
+        <v>56531.950168959738</v>
       </c>
       <c r="EI21" s="15">
         <f>EH21*(1+Main!$L$10)</f>
-        <v>179575.29508349238</v>
+        <v>55966.630667270139</v>
       </c>
       <c r="EJ21" s="15">
         <f>EI21*(1+Main!$L$10)</f>
-        <v>179575.29508349238</v>
+        <v>55406.964360597434</v>
       </c>
       <c r="EK21" s="15">
         <f>EJ21*(1+Main!$L$10)</f>
-        <v>179575.29508349238</v>
+        <v>54852.894716991461</v>
       </c>
       <c r="EL21" s="15">
         <f>EK21*(1+Main!$L$10)</f>
-        <v>179575.29508349238</v>
+        <v>54304.365769821547</v>
       </c>
       <c r="EM21" s="15">
         <f>EL21*(1+Main!$L$10)</f>
-        <v>179575.29508349238</v>
+        <v>53761.322112123329</v>
       </c>
     </row>
     <row r="22" spans="2:143">
